--- a/Instances/05_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
+++ b/Instances/05_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
@@ -574,7 +574,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -606,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7964,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>65485</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>65485</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
@@ -8188,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>65485</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
@@ -8220,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>65485</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
@@ -8252,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>65485</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>65485</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
@@ -8316,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>65485</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
@@ -8348,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>3341</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
@@ -8380,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>36889</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
@@ -8412,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>33549</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
@@ -8444,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>65485</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
@@ -8476,7 +8476,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>3209</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
@@ -8508,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>28597</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
@@ -8540,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>25389</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1413</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
@@ -8604,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1929</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
@@ -8636,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>15001</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
@@ -8668,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>18549</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
@@ -8700,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1741</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
@@ -8732,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1469</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>11173</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
@@ -8796,7 +8796,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>14217</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
@@ -8831,7 +8831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8984,28 +8984,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>4637</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>2793</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>3554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -9070,28 +9070,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>4637</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>2793</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>3554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -9156,28 +9156,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>4637</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>2793</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>3554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -9242,28 +9242,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>3750</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>4637</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>2793</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>3554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -9328,27 +9328,457 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>353</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V7" t="n">
         <v>482</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W7" t="n">
         <v>3750</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X7" t="n">
         <v>4637</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y7" t="n">
         <v>435</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z7" t="n">
         <v>367</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA7" t="n">
         <v>2793</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB7" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>353</v>
+      </c>
+      <c r="V8" t="n">
+        <v>482</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3750</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4637</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>435</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2793</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>353</v>
+      </c>
+      <c r="V9" t="n">
+        <v>482</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3750</v>
+      </c>
+      <c r="X9" t="n">
+        <v>4637</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>435</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2793</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>353</v>
+      </c>
+      <c r="V10" t="n">
+        <v>482</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3750</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4637</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>435</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2793</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>353</v>
+      </c>
+      <c r="V11" t="n">
+        <v>482</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3750</v>
+      </c>
+      <c r="X11" t="n">
+        <v>4637</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>435</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>367</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2793</v>
+      </c>
+      <c r="AB11" t="n">
         <v>3554</v>
       </c>
     </row>
@@ -9363,7 +9793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9516,28 +9946,28 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>395.78</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>450.28</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>2573.63</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>3043.73</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>458.75</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>367.7</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>2048.39</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>3032.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -9602,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>395.78</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>450.28</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2573.63</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3043.73</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>458.75</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>367.7</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>2048.39</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>3032.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -9688,28 +10118,28 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>395.78</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>450.28</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2573.63</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>3043.73</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.75</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>367.7</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>2048.39</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>3032.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -9774,28 +10204,28 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>395.78</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>450.28</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>2573.63</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>3043.73</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>458.75</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>367.7</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>2048.39</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>3032.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -9860,27 +10290,457 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>395.78</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V7" t="n">
         <v>450.28</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W7" t="n">
         <v>2573.63</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X7" t="n">
         <v>3043.73</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y7" t="n">
         <v>458.75</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z7" t="n">
         <v>367.7</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA7" t="n">
         <v>2048.39</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB7" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V8" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V9" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V10" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>3032.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>395.78</v>
+      </c>
+      <c r="V11" t="n">
+        <v>450.28</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2573.63</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3043.73</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>458.75</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2048.39</v>
+      </c>
+      <c r="AB11" t="n">
         <v>3032.27</v>
       </c>
     </row>

--- a/Instances/05_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
+++ b/Instances/05_Lumpy_b2_fe25_en_rk50_ll0_l20_H010_c2.xlsx
@@ -7964,7 +7964,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
@@ -8188,7 +8188,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
@@ -8220,7 +8220,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
@@ -8252,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
@@ -8316,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
@@ -8348,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
@@ -8380,7 +8380,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
@@ -8412,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
@@ -8444,7 +8444,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
@@ -8476,7 +8476,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
@@ -8508,7 +8508,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
@@ -8540,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
@@ -8572,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
@@ -8604,7 +8604,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
@@ -8636,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
@@ -8668,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
@@ -8700,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
@@ -8732,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
@@ -8796,7 +8796,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
